--- a/result/extra_trees_grid_search_results.xlsx
+++ b/result/extra_trees_grid_search_results.xlsx
@@ -10,6 +10,36 @@
     <sheet name="CM1_Performance Metrics" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CM1_Best Hyperparameters" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="CM1_Classification Report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="JM1_Performance Metrics" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="JM1_Best Hyperparameters" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="JM1_Classification Report" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="KC1_Performance Metrics" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="KC1_Best Hyperparameters" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="KC1_Classification Report" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="KC3_Performance Metrics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="KC3_Best Hyperparameters" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="KC3_Classification Report" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MC1_Performance Metrics" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="MC1_Best Hyperparameters" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MC1_Classification Report" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="MC2_Performance Metrics" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MC2_Best Hyperparameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="MC2_Classification Report" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MW1_Performance Metrics" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MW1_Best Hyperparameters" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MW1_Classification Report" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="PC1_Performance Metrics" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="PC1_Best Hyperparameters" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="PC1_Classification Report" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="PC2_Performance Metrics" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="PC2_Best Hyperparameters" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="PC2_Classification Report" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="PC3_Performance Metrics" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="PC3_Best Hyperparameters" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="PC3_Classification Report" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="PC4_Performance Metrics" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="PC4_Best Hyperparameters" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="PC4_Classification Report" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,6 +562,1185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.95751953125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9935649935649936</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9992529384421277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9877149877149877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9938195302843016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="E3" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9935649935649936</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9935649935649936</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9935649935649936</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9935649935649936</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9933333333333334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9938574938574938</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9935540604441642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9936507936507936</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9935649935649936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9935667018651231</v>
+      </c>
+      <c r="E6" t="n">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9038461538461539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9591836734693877</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9306930693069307</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.990524781341108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -624,6 +1833,1182 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>CM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9135802469135802</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9038461538461539</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9306930693069307</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9262820512820513</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9200680272108843</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9221366581102555</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9245562130177515</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9227948435869227</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9573643410852714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9752066115702479</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9554655870445344</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9950835494962901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9416058394160584</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9591078066914498</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9752066115702479</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9554655870445344</v>
+      </c>
+      <c r="E3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9573643410852714</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9573643410852714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9573643410852714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9573643410852714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9568903318903319</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9584062254931531</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9572866968679921</v>
+      </c>
+      <c r="E5" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9581543564101702</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9573643410852714</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9573996339113073</v>
+      </c>
+      <c r="E6" t="n">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9897260273972602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9802631578947368</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9900332225913622</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.999953067067161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9790209790209791</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9893992932862191</v>
+      </c>
+      <c r="E2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9802631578947368</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9900332225913622</v>
+      </c>
+      <c r="E3" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9897260273972602</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9897260273972602</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9897260273972602</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9897260273972602</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9901315789473684</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9895104895104896</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9897162579387906</v>
+      </c>
+      <c r="E5" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9899288031723144</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9897260273972602</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9897227709111038</v>
+      </c>
+      <c r="E6" t="n">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9391534391534392</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9117647058823529</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9738219895287958</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9417721518987342</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9877789288014112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -774,4 +3159,1211 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9712643678160919</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9037433155080213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9362880886426593</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9738219895287958</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9417721518987342</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9391534391534392</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9391534391534392</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9391534391534392</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9391534391534392</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9415145368492224</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9387826525184086</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9390301202706968</v>
+      </c>
+      <c r="E5" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9411997238231179</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9391534391534392</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9390591364784009</v>
+      </c>
+      <c r="E6" t="n">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9662162162162162</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9451476793248945</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9676025917926566</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9976455305675083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9903381642512077</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9403669724770642</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="E2" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9451476793248945</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9676025917926566</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9662162162162162</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9662162162162162</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9662162162162162</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9662162162162162</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9677429217880511</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9657587074774702</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9661542370727989</v>
+      </c>
+      <c r="E5" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9673358003022285</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9662162162162162</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9661803335542378</v>
+      </c>
+      <c r="E6" t="n">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8944353518821604</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.876078431372549</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9178307313064914</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8964686998394864</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9506371634123753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JM1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9144568006843456</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8712306438467807</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8923205342237062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.876078431372549</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9178307313064914</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8964686998394864</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8944353518821604</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8944353518821604</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8944353518821604</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8944353518821604</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8952676160284474</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8945306875766361</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8943946170315963</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8953461315139462</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8944353518821604</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8943861306043955</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8247126436781609</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8354430379746836</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7904191616766467</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8123076923076923</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8983524663380421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bootstrap</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.856353591160221</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8355795148247979</v>
+      </c>
+      <c r="E2" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8354430379746836</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7904191616766467</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8123076923076923</v>
+      </c>
+      <c r="E3" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8247126436781609</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8247126436781609</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8247126436781609</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8247126436781609</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8256162558294471</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8233863764184339</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8239436035662451</v>
+      </c>
+      <c r="E5" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8252209255132593</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8247126436781609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8244117149387156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>